--- a/tools/planner/templates/lesson_plan_template.xlsx
+++ b/tools/planner/templates/lesson_plan_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Byalov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Byalov\Documents\GitHub\instruments\tools\planner\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70935F12-E351-45B5-A27E-2CD6B9D126B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDD03AB-7E0D-44AE-85B5-26B87BADEAF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{E2348434-072C-460C-AFC1-E7099F04A745}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
-  <si>
-    <t>Тема на урока/№</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>Дейност</t>
   </si>
@@ -48,13 +45,10 @@
     <t>Изображение (URL)</t>
   </si>
   <si>
-    <t>Урок по Програмиране 1</t>
+    <t>Тема на урока</t>
   </si>
   <si>
-    <t>Въведение в Темата</t>
-  </si>
-  <si>
-    <t>https://markdownlivepreview.dev/tools/markdown-to-word</t>
+    <t>Тема …</t>
   </si>
 </sst>
 </file>
@@ -432,67 +426,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBB9FE2-9D1C-4146-A178-D4A2D5B91591}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,60 +491,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45A39C9-A5D1-449F-959C-46B4BC61D294}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD1048576"/>
+      <selection activeCell="B17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,27 +506,73 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45A39C9-A5D1-449F-959C-46B4BC61D294}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -625,27 +604,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -662,7 +638,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,27 +653,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -714,7 +687,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,27 +702,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
@@ -766,7 +736,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,27 +751,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>

--- a/tools/planner/templates/lesson_plan_template.xlsx
+++ b/tools/planner/templates/lesson_plan_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Byalov\Documents\GitHub\instruments\tools\planner\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Byalov\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDD03AB-7E0D-44AE-85B5-26B87BADEAF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6A801-A999-4A79-9B5B-0D72C76C6725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{E2348434-072C-460C-AFC1-E7099F04A745}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="12">
   <si>
     <t>Дейност</t>
   </si>
@@ -39,16 +39,34 @@
     <t>Продължителност (мин.)</t>
   </si>
   <si>
-    <t>Връзка (URL)</t>
-  </si>
-  <si>
     <t>Изображение (URL)</t>
   </si>
   <si>
     <t>Тема на урока</t>
   </si>
   <si>
-    <t>Тема …</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Уеб сайт (URL)</t>
+  </si>
+  <si>
+    <t>Заглавие Урок 1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>Число</t>
+  </si>
+  <si>
+    <t>https://www.artstation.com/artwork/Xnk8Ry</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -101,15 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,55 +448,64 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <v>2</v>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>3</v>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -488,45 +516,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174F8644-9821-462B-97FA-574C06C90745}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -537,45 +579,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45A39C9-A5D1-449F-959C-46B4BC61D294}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -586,45 +642,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E03D95A-0BC9-41C7-A080-407333479426}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -635,45 +705,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF6C471-4B70-44D3-8ED6-91AE12D6FD93}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -684,45 +768,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1675A2C3-51DA-474B-94F4-854EBB72F6BA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -733,45 +831,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A55E06C-3F6F-4684-B159-A9BC6C29D9B3}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
